--- a/res/HDAnet_1HAM.xlsx
+++ b/res/HDAnet_1HAM.xlsx
@@ -468,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3503786534964226</v>
+        <v>0.3461194636061666</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5822327749645498</v>
+        <v>0.5867445773438803</v>
       </c>
       <c r="E2" t="n">
-        <v>0.4125421092013538</v>
+        <v>0.6315614581228531</v>
       </c>
       <c r="F2" t="n">
-        <v>24.93779683113098</v>
+        <v>26.52093625068665</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2216990861321015</v>
+        <v>0.2195008842107061</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7157830051298448</v>
+        <v>0.7181050223648724</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6486133167685391</v>
+        <v>0.615537269208426</v>
       </c>
       <c r="F3" t="n">
-        <v>48.38327980041504</v>
+        <v>53.15318083763123</v>
       </c>
     </row>
   </sheetData>

--- a/res/HDAnet_1HAM.xlsx
+++ b/res/HDAnet_1HAM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3461194636061666</v>
+        <v>0.3461796290543164</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5867445773438803</v>
+        <v>0.5892040942313574</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6315614581228531</v>
+        <v>0.6067557050666801</v>
       </c>
       <c r="F2" t="n">
-        <v>26.52093625068665</v>
+        <v>27.39399838447571</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,976 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2195008842107061</v>
+        <v>0.2230438776821791</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7181050223648724</v>
+        <v>0.7146911536242563</v>
       </c>
       <c r="E3" t="n">
-        <v>0.615537269208426</v>
+        <v>0.6136547866361891</v>
       </c>
       <c r="F3" t="n">
-        <v>53.15318083763123</v>
+        <v>53.54081249237061</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="n">
+        <v>3</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.1977037870266782</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.7442619418339543</v>
+      </c>
+      <c r="E4" t="n">
+        <v>0.696592943334512</v>
+      </c>
+      <c r="F4" t="n">
+        <v>79.63613772392273</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>4</v>
+      </c>
+      <c r="C5" t="n">
+        <v>0.1698366337803469</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.7802100638450203</v>
+      </c>
+      <c r="E5" t="n">
+        <v>0.6821739950621337</v>
+      </c>
+      <c r="F5" t="n">
+        <v>105.7809426784515</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>0.1550340963481882</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.798162620165573</v>
+      </c>
+      <c r="E6" t="n">
+        <v>0.6791726785082846</v>
+      </c>
+      <c r="F6" t="n">
+        <v>131.9494936466217</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>0.1449910392553345</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.8130293084962187</v>
+      </c>
+      <c r="E7" t="n">
+        <v>0.800525911168923</v>
+      </c>
+      <c r="F7" t="n">
+        <v>158.1082260608673</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="n">
+        <v>7</v>
+      </c>
+      <c r="C8" t="n">
+        <v>0.1329248770868421</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.8295223700856365</v>
+      </c>
+      <c r="E8" t="n">
+        <v>0.8013809213351182</v>
+      </c>
+      <c r="F8" t="n">
+        <v>184.2847645282745</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="n">
+        <v>8</v>
+      </c>
+      <c r="C9" t="n">
+        <v>0.1259094136449881</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.8377858711178613</v>
+      </c>
+      <c r="E9" t="n">
+        <v>0.8493717954384724</v>
+      </c>
+      <c r="F9" t="n">
+        <v>210.4818782806396</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="n">
+        <v>9</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.1166740385485605</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.8497521422141745</v>
+      </c>
+      <c r="E10" t="n">
+        <v>0.8183278029652455</v>
+      </c>
+      <c r="F10" t="n">
+        <v>236.6728694438934</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="n">
+        <v>10</v>
+      </c>
+      <c r="C11" t="n">
+        <v>0.1049771780701359</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.8634135907002447</v>
+      </c>
+      <c r="E11" t="n">
+        <v>0.8251953125</v>
+      </c>
+      <c r="F11" t="n">
+        <v>262.872567653656</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="n">
+        <v>11</v>
+      </c>
+      <c r="C12" t="n">
+        <v>0.0985822217990657</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.8716642215043374</v>
+      </c>
+      <c r="E12" t="n">
+        <v>0.627948038745201</v>
+      </c>
+      <c r="F12" t="n">
+        <v>289.0817499160767</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="n">
+        <v>12</v>
+      </c>
+      <c r="C13" t="n">
+        <v>0.09218330486431434</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.8796540265459044</v>
+      </c>
+      <c r="E13" t="n">
+        <v>0.7163698632299454</v>
+      </c>
+      <c r="F13" t="n">
+        <v>315.2809002399445</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="n">
+        <v>13</v>
+      </c>
+      <c r="C14" t="n">
+        <v>0.08658741373944348</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.8856872853875882</v>
+      </c>
+      <c r="E14" t="n">
+        <v>0.8534676749722166</v>
+      </c>
+      <c r="F14" t="n">
+        <v>341.4865076541901</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="n">
+        <v>14</v>
+      </c>
+      <c r="C15" t="n">
+        <v>0.08313049039009157</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.8901178478458822</v>
+      </c>
+      <c r="E15" t="n">
+        <v>0.8624621530233381</v>
+      </c>
+      <c r="F15" t="n">
+        <v>367.7155959606171</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="n">
+        <v>15</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.07929399633927306</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.8941892386211978</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.8209729475020207</v>
+      </c>
+      <c r="F16" t="n">
+        <v>393.933098077774</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="n">
+        <v>16</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.07403767206363522</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.9014037346035144</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.7704468390078804</v>
+      </c>
+      <c r="F17" t="n">
+        <v>420.1810510158539</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="n">
+        <v>17</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.07094023390914179</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.9048143993632876</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.7950949292154981</v>
+      </c>
+      <c r="F18" t="n">
+        <v>446.4372887611389</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="n">
+        <v>18</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.06865154113366753</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.9078503612787077</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.8590091590472823</v>
+      </c>
+      <c r="F19" t="n">
+        <v>472.7094469070435</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="n">
+        <v>19</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.06250768696904507</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.9155310636260635</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.8710805292104465</v>
+      </c>
+      <c r="F20" t="n">
+        <v>498.9434871673584</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="n">
+        <v>20</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.06073009017702669</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.9174043606287883</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.8564747139573651</v>
+      </c>
+      <c r="F21" t="n">
+        <v>525.1912214756012</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>21</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.05815434455871582</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.9204960392280209</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.8696361086204284</v>
+      </c>
+      <c r="F22" t="n">
+        <v>551.4547078609467</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="n">
+        <v>22</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.05532450226899389</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.9236195947214035</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.8509815745605173</v>
+      </c>
+      <c r="F23" t="n">
+        <v>577.7469027042389</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="n">
+        <v>23</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.05350981445663307</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.9253837934611856</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.8612555093200647</v>
+      </c>
+      <c r="F24" t="n">
+        <v>604.0380485057831</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="n">
+        <v>24</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.05231411722602896</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.9269005254094145</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.871612715321277</v>
+      </c>
+      <c r="F25" t="n">
+        <v>630.33451795578</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="n">
+        <v>25</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.05122740087619594</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.9278099129212312</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.8474265634471611</v>
+      </c>
+      <c r="F26" t="n">
+        <v>656.6108131408691</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="n">
+        <v>26</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.04933424574152975</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.9304780686968248</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.8290591375782986</v>
+      </c>
+      <c r="F27" t="n">
+        <v>682.8969762325287</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="n">
+        <v>27</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.04796904686848539</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.9318057657753156</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.866403132261568</v>
+      </c>
+      <c r="F28" t="n">
+        <v>709.1820282936096</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="n">
+        <v>28</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.04699115710947104</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.9325904152532948</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.8673540424833299</v>
+      </c>
+      <c r="F29" t="n">
+        <v>735.444153547287</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="n">
+        <v>29</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.04543252301475982</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.934631894097898</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.8683740165311173</v>
+      </c>
+      <c r="F30" t="n">
+        <v>761.7417061328888</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+      <c r="C31" t="n">
+        <v>0.0455552738068539</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.9341050293158817</v>
+      </c>
+      <c r="E31" t="n">
+        <v>0.8727226696681147</v>
+      </c>
+      <c r="F31" t="n">
+        <v>788.0116348266602</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="n">
+        <v>31</v>
+      </c>
+      <c r="C32" t="n">
+        <v>0.04289287714444974</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.9377084216690763</v>
+      </c>
+      <c r="E32" t="n">
+        <v>0.8689845407531824</v>
+      </c>
+      <c r="F32" t="n">
+        <v>814.3540976047516</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="n">
+        <v>32</v>
+      </c>
+      <c r="C33" t="n">
+        <v>0.04195884414199912</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.9387265273105155</v>
+      </c>
+      <c r="E33" t="n">
+        <v>0.8673599622398465</v>
+      </c>
+      <c r="F33" t="n">
+        <v>840.6852276325226</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="n">
+        <v>33</v>
+      </c>
+      <c r="C34" t="n">
+        <v>0.04166686989630925</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.9388221579929655</v>
+      </c>
+      <c r="E34" t="n">
+        <v>0.8675989230778945</v>
+      </c>
+      <c r="F34" t="n">
+        <v>866.9524984359741</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="n">
+        <v>34</v>
+      </c>
+      <c r="C35" t="n">
+        <v>0.04351693710530486</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.9365361448138519</v>
+      </c>
+      <c r="E35" t="n">
+        <v>0.8694965996918569</v>
+      </c>
+      <c r="F35" t="n">
+        <v>893.2319941520691</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="n">
+        <v>35</v>
+      </c>
+      <c r="C36" t="n">
+        <v>0.04065011671112409</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.9399239472696436</v>
+      </c>
+      <c r="E36" t="n">
+        <v>0.8629546767655082</v>
+      </c>
+      <c r="F36" t="n">
+        <v>919.4790930747986</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="n">
+        <v>36</v>
+      </c>
+      <c r="C37" t="n">
+        <v>0.03901514494207965</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.9419541850289161</v>
+      </c>
+      <c r="E37" t="n">
+        <v>0.8691753542382299</v>
+      </c>
+      <c r="F37" t="n">
+        <v>945.7293472290039</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="n">
+        <v>37</v>
+      </c>
+      <c r="C38" t="n">
+        <v>0.03789045379499648</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.9433391193245009</v>
+      </c>
+      <c r="E38" t="n">
+        <v>0.8655704198449181</v>
+      </c>
+      <c r="F38" t="n">
+        <v>971.9867925643921</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="n">
+        <v>38</v>
+      </c>
+      <c r="C39" t="n">
+        <v>0.03756694731173139</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.9438250383174387</v>
+      </c>
+      <c r="E39" t="n">
+        <v>0.8701033747347949</v>
+      </c>
+      <c r="F39" t="n">
+        <v>998.2398889064789</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="n">
+        <v>39</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.0369556613002551</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.9443532607184563</v>
+      </c>
+      <c r="E40" t="n">
+        <v>0.861176184582744</v>
+      </c>
+      <c r="F40" t="n">
+        <v>1024.488285541534</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="n">
+        <v>40</v>
+      </c>
+      <c r="C41" t="n">
+        <v>0.03634848508587975</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.9451379645011956</v>
+      </c>
+      <c r="E41" t="n">
+        <v>0.8591784640836533</v>
+      </c>
+      <c r="F41" t="n">
+        <v>1050.77363038063</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="n">
+        <v>41</v>
+      </c>
+      <c r="C42" t="n">
+        <v>0.03652962360135216</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.9446938601734972</v>
+      </c>
+      <c r="E42" t="n">
+        <v>0.8629880247272176</v>
+      </c>
+      <c r="F42" t="n">
+        <v>1077.079414606094</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="n">
+        <v>42</v>
+      </c>
+      <c r="C43" t="n">
+        <v>0.03626551998814705</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.9449571296502252</v>
+      </c>
+      <c r="E43" t="n">
+        <v>0.8636074285840574</v>
+      </c>
+      <c r="F43" t="n">
+        <v>1103.298526525497</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="n">
+        <v>43</v>
+      </c>
+      <c r="C44" t="n">
+        <v>0.03535396045413914</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.9462268835497414</v>
+      </c>
+      <c r="E44" t="n">
+        <v>0.8538258202414629</v>
+      </c>
+      <c r="F44" t="n">
+        <v>1129.512359619141</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="n">
+        <v>44</v>
+      </c>
+      <c r="C45" t="n">
+        <v>0.0348086145780067</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.9468472611285659</v>
+      </c>
+      <c r="E45" t="n">
+        <v>0.8590582930263689</v>
+      </c>
+      <c r="F45" t="n">
+        <v>1155.727951288223</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="n">
+        <v>45</v>
+      </c>
+      <c r="C46" t="n">
+        <v>0.03429529223114008</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.9475487700189067</v>
+      </c>
+      <c r="E46" t="n">
+        <v>0.8637542385456658</v>
+      </c>
+      <c r="F46" t="n">
+        <v>1181.936084270477</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="n">
+        <v>46</v>
+      </c>
+      <c r="C47" t="n">
+        <v>0.03387172075561996</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.9481019726095479</v>
+      </c>
+      <c r="E47" t="n">
+        <v>0.8573682025409174</v>
+      </c>
+      <c r="F47" t="n">
+        <v>1208.16223692894</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="n">
+        <v>47</v>
+      </c>
+      <c r="C48" t="n">
+        <v>0.03344617272430285</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.948501166900684</v>
+      </c>
+      <c r="E48" t="n">
+        <v>0.8588422219135179</v>
+      </c>
+      <c r="F48" t="n">
+        <v>1234.377520561218</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="n">
+        <v>48</v>
+      </c>
+      <c r="C49" t="n">
+        <v>0.03295480697453834</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.9490268912827392</v>
+      </c>
+      <c r="E49" t="n">
+        <v>0.873524599350879</v>
+      </c>
+      <c r="F49" t="n">
+        <v>1260.577580213547</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="n">
+        <v>49</v>
+      </c>
+      <c r="C50" t="n">
+        <v>0.03272440268249538</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.9492889660547461</v>
+      </c>
+      <c r="E50" t="n">
+        <v>0.8687230848403718</v>
+      </c>
+      <c r="F50" t="n">
+        <v>1286.771903276443</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="n">
+        <v>50</v>
+      </c>
+      <c r="C51" t="n">
+        <v>0.03270035854233708</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.9493506019574042</v>
+      </c>
+      <c r="E51" t="n">
+        <v>0.8637974527682361</v>
+      </c>
+      <c r="F51" t="n">
+        <v>1312.961552858353</v>
       </c>
     </row>
   </sheetData>

--- a/res/HDAnet_1HAM.xlsx
+++ b/res/HDAnet_1HAM.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F51"/>
+  <dimension ref="A1:F33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -468,16 +468,16 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3461796290543164</v>
+        <v>0.3490576929227533</v>
       </c>
       <c r="D2" t="n">
-        <v>0.5892040942313574</v>
+        <v>0.5924514961146432</v>
       </c>
       <c r="E2" t="n">
-        <v>0.6067557050666801</v>
+        <v>0.53859008296663</v>
       </c>
       <c r="F2" t="n">
-        <v>27.39399838447571</v>
+        <v>87.21544337272644</v>
       </c>
     </row>
     <row r="3">
@@ -488,16 +488,16 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0.2230438776821791</v>
+        <v>0.240218624269605</v>
       </c>
       <c r="D3" t="n">
-        <v>0.7146911536242563</v>
+        <v>0.698061200676153</v>
       </c>
       <c r="E3" t="n">
-        <v>0.6136547866361891</v>
+        <v>0.60921141593326</v>
       </c>
       <c r="F3" t="n">
-        <v>53.54081249237061</v>
+        <v>171.3239767551422</v>
       </c>
     </row>
     <row r="4">
@@ -508,16 +508,16 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0.1977037870266782</v>
+        <v>0.1907088529186613</v>
       </c>
       <c r="D4" t="n">
-        <v>0.7442619418339543</v>
+        <v>0.7579423220052478</v>
       </c>
       <c r="E4" t="n">
-        <v>0.696592943334512</v>
+        <v>0.7450595319948662</v>
       </c>
       <c r="F4" t="n">
-        <v>79.63613772392273</v>
+        <v>258.5156271457672</v>
       </c>
     </row>
     <row r="5">
@@ -528,16 +528,16 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0.1698366337803469</v>
+        <v>0.1605269317730896</v>
       </c>
       <c r="D5" t="n">
-        <v>0.7802100638450203</v>
+        <v>0.7967819658895953</v>
       </c>
       <c r="E5" t="n">
-        <v>0.6821739950621337</v>
+        <v>0.7687123556105611</v>
       </c>
       <c r="F5" t="n">
-        <v>105.7809426784515</v>
+        <v>341.8140335083008</v>
       </c>
     </row>
     <row r="6">
@@ -548,16 +548,16 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0.1550340963481882</v>
+        <v>0.1471265029842262</v>
       </c>
       <c r="D6" t="n">
-        <v>0.798162620165573</v>
+        <v>0.8144048182208093</v>
       </c>
       <c r="E6" t="n">
-        <v>0.6791726785082846</v>
+        <v>0.6541922786028603</v>
       </c>
       <c r="F6" t="n">
-        <v>131.9494936466217</v>
+        <v>428.6159284114838</v>
       </c>
     </row>
     <row r="7">
@@ -568,16 +568,16 @@
         <v>6</v>
       </c>
       <c r="C7" t="n">
-        <v>0.1449910392553345</v>
+        <v>0.139007906335576</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8130293084962187</v>
+        <v>0.8243723508931274</v>
       </c>
       <c r="E7" t="n">
-        <v>0.800525911168923</v>
+        <v>0.7733985950678401</v>
       </c>
       <c r="F7" t="n">
-        <v>158.1082260608673</v>
+        <v>512.1327474117279</v>
       </c>
     </row>
     <row r="8">
@@ -588,16 +588,16 @@
         <v>7</v>
       </c>
       <c r="C8" t="n">
-        <v>0.1329248770868421</v>
+        <v>0.1230767488642025</v>
       </c>
       <c r="D8" t="n">
-        <v>0.8295223700856365</v>
+        <v>0.8435434485064083</v>
       </c>
       <c r="E8" t="n">
-        <v>0.8013809213351182</v>
+        <v>0.822523262742941</v>
       </c>
       <c r="F8" t="n">
-        <v>184.2847645282745</v>
+        <v>595.6232092380524</v>
       </c>
     </row>
     <row r="9">
@@ -608,16 +608,16 @@
         <v>8</v>
       </c>
       <c r="C9" t="n">
-        <v>0.1259094136449881</v>
+        <v>0.114986823348973</v>
       </c>
       <c r="D9" t="n">
-        <v>0.8377858711178613</v>
+        <v>0.8528288676960339</v>
       </c>
       <c r="E9" t="n">
-        <v>0.8493717954384724</v>
+        <v>0.8540872524752475</v>
       </c>
       <c r="F9" t="n">
-        <v>210.4818782806396</v>
+        <v>679.0996243953705</v>
       </c>
     </row>
     <row r="10">
@@ -628,16 +628,16 @@
         <v>9</v>
       </c>
       <c r="C10" t="n">
-        <v>0.1166740385485605</v>
+        <v>0.1083439378225186</v>
       </c>
       <c r="D10" t="n">
-        <v>0.8497521422141745</v>
+        <v>0.860385303133515</v>
       </c>
       <c r="E10" t="n">
-        <v>0.8183278029652455</v>
+        <v>0.7361109965163183</v>
       </c>
       <c r="F10" t="n">
-        <v>236.6728694438934</v>
+        <v>762.4424102306366</v>
       </c>
     </row>
     <row r="11">
@@ -648,16 +648,16 @@
         <v>10</v>
       </c>
       <c r="C11" t="n">
-        <v>0.1049771780701359</v>
+        <v>0.102947399345016</v>
       </c>
       <c r="D11" t="n">
-        <v>0.8634135907002447</v>
+        <v>0.8676938105510142</v>
       </c>
       <c r="E11" t="n">
-        <v>0.8251953125</v>
+        <v>0.8624015057755775</v>
       </c>
       <c r="F11" t="n">
-        <v>262.872567653656</v>
+        <v>845.7407896518707</v>
       </c>
     </row>
     <row r="12">
@@ -668,16 +668,16 @@
         <v>11</v>
       </c>
       <c r="C12" t="n">
-        <v>0.0985822217990657</v>
+        <v>0.09507026228982682</v>
       </c>
       <c r="D12" t="n">
-        <v>0.8716642215043374</v>
+        <v>0.8775891708295489</v>
       </c>
       <c r="E12" t="n">
-        <v>0.627948038745201</v>
+        <v>0.8391997272643931</v>
       </c>
       <c r="F12" t="n">
-        <v>289.0817499160767</v>
+        <v>929.2082426548004</v>
       </c>
     </row>
     <row r="13">
@@ -688,16 +688,16 @@
         <v>12</v>
       </c>
       <c r="C13" t="n">
-        <v>0.09218330486431434</v>
+        <v>0.0912419925837166</v>
       </c>
       <c r="D13" t="n">
-        <v>0.8796540265459044</v>
+        <v>0.8814795577253002</v>
       </c>
       <c r="E13" t="n">
-        <v>0.7163698632299454</v>
+        <v>0.8355187133296663</v>
       </c>
       <c r="F13" t="n">
-        <v>315.2809002399445</v>
+        <v>1012.60232424736</v>
       </c>
     </row>
     <row r="14">
@@ -708,16 +708,16 @@
         <v>13</v>
       </c>
       <c r="C14" t="n">
-        <v>0.08658741373944348</v>
+        <v>0.08764739704067116</v>
       </c>
       <c r="D14" t="n">
-        <v>0.8856872853875882</v>
+        <v>0.8864138031082854</v>
       </c>
       <c r="E14" t="n">
-        <v>0.8534676749722166</v>
+        <v>0.8754547121378805</v>
       </c>
       <c r="F14" t="n">
-        <v>341.4865076541901</v>
+        <v>1096.121229171753</v>
       </c>
     </row>
     <row r="15">
@@ -728,16 +728,16 @@
         <v>14</v>
       </c>
       <c r="C15" t="n">
-        <v>0.08313049039009157</v>
+        <v>0.08356633985399875</v>
       </c>
       <c r="D15" t="n">
-        <v>0.8901178478458822</v>
+        <v>0.8923990028004845</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8624621530233381</v>
+        <v>0.7968663480931426</v>
       </c>
       <c r="F15" t="n">
-        <v>367.7155959606171</v>
+        <v>1179.534170627594</v>
       </c>
     </row>
     <row r="16">
@@ -748,16 +748,16 @@
         <v>15</v>
       </c>
       <c r="C16" t="n">
-        <v>0.07929399633927306</v>
+        <v>0.08021770827776729</v>
       </c>
       <c r="D16" t="n">
-        <v>0.8941892386211978</v>
+        <v>0.8949608468311636</v>
       </c>
       <c r="E16" t="n">
-        <v>0.8209729475020207</v>
+        <v>0.8766258136230289</v>
       </c>
       <c r="F16" t="n">
-        <v>393.933098077774</v>
+        <v>1262.844007492065</v>
       </c>
     </row>
     <row r="17">
@@ -768,16 +768,16 @@
         <v>16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.07403767206363522</v>
+        <v>0.07515299612559805</v>
       </c>
       <c r="D17" t="n">
-        <v>0.9014037346035144</v>
+        <v>0.9007952839590272</v>
       </c>
       <c r="E17" t="n">
-        <v>0.7704468390078804</v>
+        <v>0.8759185345617895</v>
       </c>
       <c r="F17" t="n">
-        <v>420.1810510158539</v>
+        <v>1346.205067157745</v>
       </c>
     </row>
     <row r="18">
@@ -788,16 +788,16 @@
         <v>17</v>
       </c>
       <c r="C18" t="n">
-        <v>0.07094023390914179</v>
+        <v>0.07082426958090603</v>
       </c>
       <c r="D18" t="n">
-        <v>0.9048143993632876</v>
+        <v>0.906176976107579</v>
       </c>
       <c r="E18" t="n">
-        <v>0.7950949292154981</v>
+        <v>0.8518097955628896</v>
       </c>
       <c r="F18" t="n">
-        <v>446.4372887611389</v>
+        <v>1429.436167001724</v>
       </c>
     </row>
     <row r="19">
@@ -808,16 +808,16 @@
         <v>18</v>
       </c>
       <c r="C19" t="n">
-        <v>0.06865154113366753</v>
+        <v>0.06657659211665473</v>
       </c>
       <c r="D19" t="n">
-        <v>0.9078503612787077</v>
+        <v>0.9121152014582703</v>
       </c>
       <c r="E19" t="n">
-        <v>0.8590091590472823</v>
+        <v>0.7169936629079574</v>
       </c>
       <c r="F19" t="n">
-        <v>472.7094469070435</v>
+        <v>1512.682299375534</v>
       </c>
     </row>
     <row r="20">
@@ -828,16 +828,16 @@
         <v>19</v>
       </c>
       <c r="C20" t="n">
-        <v>0.06250768696904507</v>
+        <v>0.06373078621700609</v>
       </c>
       <c r="D20" t="n">
-        <v>0.9155310636260635</v>
+        <v>0.9152180151882128</v>
       </c>
       <c r="E20" t="n">
-        <v>0.8710805292104465</v>
+        <v>0.8327969151081774</v>
       </c>
       <c r="F20" t="n">
-        <v>498.9434871673584</v>
+        <v>1596.108490467072</v>
       </c>
     </row>
     <row r="21">
@@ -848,16 +848,16 @@
         <v>20</v>
       </c>
       <c r="C21" t="n">
-        <v>0.06073009017702669</v>
+        <v>0.0611275431245809</v>
       </c>
       <c r="D21" t="n">
-        <v>0.9174043606287883</v>
+        <v>0.9172714199212837</v>
       </c>
       <c r="E21" t="n">
-        <v>0.8564747139573651</v>
+        <v>0.8691405390539054</v>
       </c>
       <c r="F21" t="n">
-        <v>525.1912214756012</v>
+        <v>1679.564732551575</v>
       </c>
     </row>
     <row r="22">
@@ -868,16 +868,16 @@
         <v>21</v>
       </c>
       <c r="C22" t="n">
-        <v>0.05815434455871582</v>
+        <v>0.05843788868562402</v>
       </c>
       <c r="D22" t="n">
-        <v>0.9204960392280209</v>
+        <v>0.9207044889746695</v>
       </c>
       <c r="E22" t="n">
-        <v>0.8696361086204284</v>
+        <v>0.878936846809681</v>
       </c>
       <c r="F22" t="n">
-        <v>551.4547078609467</v>
+        <v>1762.926481246948</v>
       </c>
     </row>
     <row r="23">
@@ -888,16 +888,16 @@
         <v>22</v>
       </c>
       <c r="C23" t="n">
-        <v>0.05532450226899389</v>
+        <v>0.05660491130170121</v>
       </c>
       <c r="D23" t="n">
-        <v>0.9236195947214035</v>
+        <v>0.9227250321677263</v>
       </c>
       <c r="E23" t="n">
-        <v>0.8509815745605173</v>
+        <v>0.8705749793729373</v>
       </c>
       <c r="F23" t="n">
-        <v>577.7469027042389</v>
+        <v>1846.321759700775</v>
       </c>
     </row>
     <row r="24">
@@ -908,16 +908,16 @@
         <v>23</v>
       </c>
       <c r="C24" t="n">
-        <v>0.05350981445663307</v>
+        <v>0.05516735206507857</v>
       </c>
       <c r="D24" t="n">
-        <v>0.9253837934611856</v>
+        <v>0.9245994960389545</v>
       </c>
       <c r="E24" t="n">
-        <v>0.8612555093200647</v>
+        <v>0.8722583768793546</v>
       </c>
       <c r="F24" t="n">
-        <v>604.0380485057831</v>
+        <v>1929.772075414658</v>
       </c>
     </row>
     <row r="25">
@@ -928,16 +928,16 @@
         <v>24</v>
       </c>
       <c r="C25" t="n">
-        <v>0.05231411722602896</v>
+        <v>0.05121774094468566</v>
       </c>
       <c r="D25" t="n">
-        <v>0.9269005254094145</v>
+        <v>0.9292621606620244</v>
       </c>
       <c r="E25" t="n">
-        <v>0.871612715321277</v>
+        <v>0.7047518449761643</v>
       </c>
       <c r="F25" t="n">
-        <v>630.33451795578</v>
+        <v>2013.100968837738</v>
       </c>
     </row>
     <row r="26">
@@ -948,16 +948,16 @@
         <v>25</v>
       </c>
       <c r="C26" t="n">
-        <v>0.05122740087619594</v>
+        <v>0.05248568119729897</v>
       </c>
       <c r="D26" t="n">
-        <v>0.9278099129212312</v>
+        <v>0.92735914004945</v>
       </c>
       <c r="E26" t="n">
-        <v>0.8474265634471611</v>
+        <v>0.8847730450128346</v>
       </c>
       <c r="F26" t="n">
-        <v>656.6108131408691</v>
+        <v>2098.284435749054</v>
       </c>
     </row>
     <row r="27">
@@ -968,16 +968,16 @@
         <v>26</v>
       </c>
       <c r="C27" t="n">
-        <v>0.04933424574152975</v>
+        <v>0.0499809104593963</v>
       </c>
       <c r="D27" t="n">
-        <v>0.9304780686968248</v>
+        <v>0.9303837420526794</v>
       </c>
       <c r="E27" t="n">
-        <v>0.8290591375782986</v>
+        <v>0.8790166047854785</v>
       </c>
       <c r="F27" t="n">
-        <v>682.8969762325287</v>
+        <v>2181.622198343277</v>
       </c>
     </row>
     <row r="28">
@@ -988,16 +988,16 @@
         <v>27</v>
       </c>
       <c r="C28" t="n">
-        <v>0.04796904686848539</v>
+        <v>0.04662426094187053</v>
       </c>
       <c r="D28" t="n">
-        <v>0.9318057657753156</v>
+        <v>0.9344448228882833</v>
       </c>
       <c r="E28" t="n">
-        <v>0.866403132261568</v>
+        <v>0.877048038137147</v>
       </c>
       <c r="F28" t="n">
-        <v>709.1820282936096</v>
+        <v>2266.392600297928</v>
       </c>
     </row>
     <row r="29">
@@ -1008,16 +1008,16 @@
         <v>28</v>
       </c>
       <c r="C29" t="n">
-        <v>0.04699115710947104</v>
+        <v>0.04494093963495717</v>
       </c>
       <c r="D29" t="n">
-        <v>0.9325904152532948</v>
+        <v>0.936371433166818</v>
       </c>
       <c r="E29" t="n">
-        <v>0.8673540424833299</v>
+        <v>0.8806667125045838</v>
       </c>
       <c r="F29" t="n">
-        <v>735.444153547287</v>
+        <v>2360.507612466812</v>
       </c>
     </row>
     <row r="30">
@@ -1028,16 +1028,16 @@
         <v>29</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04543252301475982</v>
+        <v>0.04319803556808009</v>
       </c>
       <c r="D30" t="n">
-        <v>0.934631894097898</v>
+        <v>0.9385971086890705</v>
       </c>
       <c r="E30" t="n">
-        <v>0.8683740165311173</v>
+        <v>0.8830261046938027</v>
       </c>
       <c r="F30" t="n">
-        <v>761.7417061328888</v>
+        <v>2443.931555986404</v>
       </c>
     </row>
     <row r="31">
@@ -1048,16 +1048,16 @@
         <v>30</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0455552738068539</v>
+        <v>0.04343066924842891</v>
       </c>
       <c r="D31" t="n">
-        <v>0.9341050293158817</v>
+        <v>0.938131496619235</v>
       </c>
       <c r="E31" t="n">
-        <v>0.8727226696681147</v>
+        <v>0.882113471763843</v>
       </c>
       <c r="F31" t="n">
-        <v>788.0116348266602</v>
+        <v>2527.348672866821</v>
       </c>
     </row>
     <row r="32">
@@ -1068,16 +1068,16 @@
         <v>31</v>
       </c>
       <c r="C32" t="n">
-        <v>0.04289287714444974</v>
+        <v>0.04173124839402025</v>
       </c>
       <c r="D32" t="n">
-        <v>0.9377084216690763</v>
+        <v>0.9401434459834493</v>
       </c>
       <c r="E32" t="n">
-        <v>0.8689845407531824</v>
+        <v>0.8875135794829483</v>
       </c>
       <c r="F32" t="n">
-        <v>814.3540976047516</v>
+        <v>2613.123575925827</v>
       </c>
     </row>
     <row r="33">
@@ -1088,376 +1088,16 @@
         <v>32</v>
       </c>
       <c r="C33" t="n">
-        <v>0.04195884414199912</v>
+        <v>0.03970711863008442</v>
       </c>
       <c r="D33" t="n">
-        <v>0.9387265273105155</v>
+        <v>0.9427724953325259</v>
       </c>
       <c r="E33" t="n">
-        <v>0.8673599622398465</v>
+        <v>0.8903599995416208</v>
       </c>
       <c r="F33" t="n">
-        <v>840.6852276325226</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="1" t="n">
-        <v>32</v>
-      </c>
-      <c r="B34" t="n">
-        <v>33</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.04166686989630925</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.9388221579929655</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.8675989230778945</v>
-      </c>
-      <c r="F34" t="n">
-        <v>866.9524984359741</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="n">
-        <v>33</v>
-      </c>
-      <c r="B35" t="n">
-        <v>34</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.04351693710530486</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.9365361448138519</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.8694965996918569</v>
-      </c>
-      <c r="F35" t="n">
-        <v>893.2319941520691</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="1" t="n">
-        <v>34</v>
-      </c>
-      <c r="B36" t="n">
-        <v>35</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.04065011671112409</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.9399239472696436</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.8629546767655082</v>
-      </c>
-      <c r="F36" t="n">
-        <v>919.4790930747986</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" s="1" t="n">
-        <v>35</v>
-      </c>
-      <c r="B37" t="n">
-        <v>36</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.03901514494207965</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.9419541850289161</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.8691753542382299</v>
-      </c>
-      <c r="F37" t="n">
-        <v>945.7293472290039</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="n">
-        <v>36</v>
-      </c>
-      <c r="B38" t="n">
-        <v>37</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.03789045379499648</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.9433391193245009</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.8655704198449181</v>
-      </c>
-      <c r="F38" t="n">
-        <v>971.9867925643921</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" s="1" t="n">
-        <v>37</v>
-      </c>
-      <c r="B39" t="n">
-        <v>38</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.03756694731173139</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.9438250383174387</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.8701033747347949</v>
-      </c>
-      <c r="F39" t="n">
-        <v>998.2398889064789</v>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="n">
-        <v>38</v>
-      </c>
-      <c r="B40" t="n">
-        <v>39</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.0369556613002551</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.9443532607184563</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.861176184582744</v>
-      </c>
-      <c r="F40" t="n">
-        <v>1024.488285541534</v>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" s="1" t="n">
-        <v>39</v>
-      </c>
-      <c r="B41" t="n">
-        <v>40</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.03634848508587975</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.9451379645011956</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.8591784640836533</v>
-      </c>
-      <c r="F41" t="n">
-        <v>1050.77363038063</v>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" s="1" t="n">
-        <v>40</v>
-      </c>
-      <c r="B42" t="n">
-        <v>41</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.03652962360135216</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.9446938601734972</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.8629880247272176</v>
-      </c>
-      <c r="F42" t="n">
-        <v>1077.079414606094</v>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" s="1" t="n">
-        <v>41</v>
-      </c>
-      <c r="B43" t="n">
-        <v>42</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.03626551998814705</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.9449571296502252</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.8636074285840574</v>
-      </c>
-      <c r="F43" t="n">
-        <v>1103.298526525497</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="n">
-        <v>42</v>
-      </c>
-      <c r="B44" t="n">
-        <v>43</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.03535396045413914</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.9462268835497414</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.8538258202414629</v>
-      </c>
-      <c r="F44" t="n">
-        <v>1129.512359619141</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" s="1" t="n">
-        <v>43</v>
-      </c>
-      <c r="B45" t="n">
-        <v>44</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.0348086145780067</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.9468472611285659</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.8590582930263689</v>
-      </c>
-      <c r="F45" t="n">
-        <v>1155.727951288223</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" s="1" t="n">
-        <v>44</v>
-      </c>
-      <c r="B46" t="n">
-        <v>45</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.03429529223114008</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.9475487700189067</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.8637542385456658</v>
-      </c>
-      <c r="F46" t="n">
-        <v>1181.936084270477</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="n">
-        <v>45</v>
-      </c>
-      <c r="B47" t="n">
-        <v>46</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.03387172075561996</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.9481019726095479</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.8573682025409174</v>
-      </c>
-      <c r="F47" t="n">
-        <v>1208.16223692894</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="1" t="n">
-        <v>46</v>
-      </c>
-      <c r="B48" t="n">
-        <v>47</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.03344617272430285</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.948501166900684</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.8588422219135179</v>
-      </c>
-      <c r="F48" t="n">
-        <v>1234.377520561218</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="n">
-        <v>47</v>
-      </c>
-      <c r="B49" t="n">
-        <v>48</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.03295480697453834</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.9490268912827392</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.873524599350879</v>
-      </c>
-      <c r="F49" t="n">
-        <v>1260.577580213547</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" s="1" t="n">
-        <v>48</v>
-      </c>
-      <c r="B50" t="n">
-        <v>49</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.03272440268249538</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.9492889660547461</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.8687230848403718</v>
-      </c>
-      <c r="F50" t="n">
-        <v>1286.771903276443</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" s="1" t="n">
-        <v>49</v>
-      </c>
-      <c r="B51" t="n">
-        <v>50</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.03270035854233708</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.9493506019574042</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.8637974527682361</v>
-      </c>
-      <c r="F51" t="n">
-        <v>1312.961552858353</v>
+        <v>2696.505333423615</v>
       </c>
     </row>
   </sheetData>
